--- a/evaluation/results/results.xlsx
+++ b/evaluation/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\AirSim_Project\evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D8A16-2C9E-44DF-878F-F54B7ABC4CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99F321-A370-4210-B62D-EE3D79FCC683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,9 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.03ms</t>
-  </si>
-  <si>
     <t>2.65ms</t>
   </si>
   <si>
@@ -105,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNN+CfC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CNN+SpikingRNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,12 +130,6 @@
     <t>0.52K</t>
   </si>
   <si>
-    <t>1730.82K</t>
-  </si>
-  <si>
-    <t>98.94K</t>
-  </si>
-  <si>
     <t>1697.92K</t>
   </si>
   <si>
@@ -197,11 +184,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpikingRNN距离测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不同模型泛化能力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN+RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN+GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38% (33% overtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29% (26% overtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45% (9% overtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35% (27% overtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31% (41% overtime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpikingRNN超参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpikingRNN不同距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草地球场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +273,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,16 +303,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -537,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -549,80 +619,106 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.3984375" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.73046875" customWidth="1"/>
+    <col min="7" max="7" width="16.9296875" customWidth="1"/>
     <col min="8" max="8" width="14.53125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="21.73046875" customWidth="1"/>
     <col min="11" max="11" width="16.46484375" customWidth="1"/>
+    <col min="12" max="12" width="13.73046875" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.92</v>
+      </c>
       <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.90669999999999995</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -631,46 +727,85 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.99</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.99</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.74</v>
+      <c r="F4" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.97330000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.96</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.98</v>
+      </c>
       <c r="I5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.85</v>
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.9667</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
@@ -680,61 +815,113 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.99</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.88</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.83</v>
+      <c r="F6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.98</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0.79</v>
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.3533</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -743,32 +930,86 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.53</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.43</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.5333</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.45329999999999998</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.4733</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.40670000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -777,40 +1018,57 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.8</v>
       </c>
       <c r="E12" s="1">
         <v>0.85</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -822,15 +1080,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -845,15 +1103,14 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -866,60 +1123,145 @@
       <c r="F23" s="1">
         <v>0.74</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -933,12 +1275,18 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>11</v>
       </c>
@@ -951,131 +1299,176 @@
       <c r="F33" s="1">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
         <v>20</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="D56:D59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluation/results/results.xlsx
+++ b/evaluation/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\AirSim_Project\evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99F321-A370-4210-B62D-EE3D79FCC683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1507B3AE-C528-41A7-A126-76780DFE7B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,12 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.65ms</t>
-  </si>
-  <si>
-    <t>3.86ms</t>
-  </si>
-  <si>
     <t>CNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +247,46 @@
   </si>
   <si>
     <t>公路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.34ms</t>
+  </si>
+  <si>
+    <t>3.29ms</t>
+  </si>
+  <si>
+    <t>3.31ms</t>
+  </si>
+  <si>
+    <t>66.05K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198.14K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1830.02K</t>
+  </si>
+  <si>
+    <t>3.18ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>304fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>187fps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +312,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -311,9 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -327,6 +364,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -609,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -632,24 +673,24 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -658,16 +699,16 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>3</v>
@@ -678,7 +719,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -690,7 +731,7 @@
         <v>0.92</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
         <v>0.99</v>
@@ -699,7 +740,7 @@
         <v>0.92</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -707,7 +748,7 @@
       <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.93330000000000002</v>
       </c>
       <c r="M3" s="2">
@@ -716,7 +757,7 @@
       <c r="N3" s="2">
         <v>0.98</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>0.90669999999999995</v>
       </c>
     </row>
@@ -748,10 +789,10 @@
       <c r="J4" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>0.98670000000000002</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>0.97330000000000005</v>
       </c>
       <c r="M4" s="2">
@@ -760,13 +801,13 @@
       <c r="N4" s="1">
         <v>0.98</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0.97330000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -778,7 +819,7 @@
         <v>0.97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>0.92</v>
@@ -787,12 +828,12 @@
         <v>0.98</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.9667</v>
       </c>
       <c r="L5" s="2">
@@ -801,7 +842,7 @@
       <c r="M5" s="2">
         <v>0.96</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>0.94669999999999999</v>
       </c>
       <c r="O5" s="2">
@@ -842,10 +883,10 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>0.99329999999999996</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.98670000000000002</v>
       </c>
       <c r="O6" s="1">
@@ -881,28 +922,28 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>0.61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
@@ -910,13 +951,13 @@
       <c r="K9" s="2">
         <v>0.45</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>0.60670000000000002</v>
       </c>
       <c r="M9" s="2">
         <v>0.36</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>0.3533</v>
       </c>
       <c r="O9" s="2">
@@ -954,13 +995,13 @@
       <c r="K10" s="2">
         <v>0.54</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0.5333</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>0.42670000000000002</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>0.45329999999999998</v>
       </c>
       <c r="O10" s="2">
@@ -969,33 +1010,33 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>0.4733</v>
       </c>
       <c r="L11" s="2">
@@ -1004,10 +1045,10 @@
       <c r="M11" s="2">
         <v>0.48</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>0.38669999999999999</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>0.40670000000000001</v>
       </c>
     </row>
@@ -1042,10 +1083,10 @@
       <c r="K12" s="2">
         <v>0.98</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>0.89329999999999998</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>0.85329999999999995</v>
       </c>
       <c r="N12" s="1">
@@ -1068,7 +1109,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1085,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
@@ -1106,7 +1147,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -1126,7 +1167,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="I24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
@@ -1134,19 +1175,19 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>3</v>
@@ -1163,35 +1204,35 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1</v>
-      </c>
-      <c r="L26" s="9">
+        <v>28</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
         <v>0.99329999999999996</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>0.98670000000000002</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>0.98</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>0.99329999999999996</v>
       </c>
       <c r="K27" s="1">
@@ -1200,7 +1241,7 @@
       <c r="L27" s="1">
         <v>0.92</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>0.85329999999999995</v>
       </c>
       <c r="N27" s="2">
@@ -1217,19 +1258,19 @@
       <c r="I28" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>0.98</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>0.89329999999999998</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>0.85329999999999995</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>0.74</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -1237,19 +1278,19 @@
       <c r="I29" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>0.87329999999999997</v>
       </c>
       <c r="K29" s="1">
         <v>0.82</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>0.62670000000000003</v>
       </c>
       <c r="M29" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>0.5333</v>
       </c>
     </row>
@@ -1258,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
@@ -1277,10 +1318,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
         <v>6</v>
@@ -1300,18 +1341,18 @@
         <v>0.77</v>
       </c>
       <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
         <v>48</v>
-      </c>
-      <c r="K33" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J34" s="1">
         <v>0.56000000000000005</v>
@@ -1328,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J35" s="1">
         <v>0.71</v>
@@ -1348,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1">
         <v>0.78</v>
@@ -1362,7 +1403,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
@@ -1375,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
@@ -1385,7 +1426,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
@@ -1393,76 +1434,107 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" t="s">
-        <v>25</v>
-      </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="H59" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/results.xlsx
+++ b/evaluation/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\AirSim_Project\evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1507B3AE-C528-41A7-A126-76780DFE7B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2887BB4-58D5-4DDB-8E7F-AF92CE1CA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNN+SpikingRNN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpikingRNN超参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpikingRNN不同距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>草地球场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,9 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.34ms</t>
-  </si>
-  <si>
     <t>3.29ms</t>
   </si>
   <si>
@@ -286,7 +271,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>187fps</t>
+    <t>4.28ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN+SRNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRNN不同距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRNN超参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同模型噪声（草地球场12m）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,10 +377,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -648,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="E35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -671,26 +684,26 @@
     <col min="13" max="13" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -698,28 +711,28 @@
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>53</v>
+      <c r="K2" t="s">
+        <v>27</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -731,7 +744,7 @@
         <v>0.92</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>0.99</v>
@@ -739,29 +752,29 @@
       <c r="G3" s="2">
         <v>0.92</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
         <v>0.93330000000000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>0.92</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>0.98</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>0.90669999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -783,31 +796,31 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
       <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
         <v>0.98670000000000002</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>0.97330000000000005</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>0.94</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.98</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>0.97330000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -819,7 +832,7 @@
         <v>0.97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>0.92</v>
@@ -827,29 +840,29 @@
       <c r="G5" s="2">
         <v>0.98</v>
       </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.9667</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.96</v>
       </c>
       <c r="M5" s="2">
         <v>0.96</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="O5" s="4">
         <v>0.94669999999999999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -871,39 +884,39 @@
       <c r="G6" s="1">
         <v>0.98</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
         <v>0.99329999999999996</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>0.98670000000000002</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -912,59 +925,59 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>0.61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0.45</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.60670000000000002</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>0.36</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>0.3533</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>0.34</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -986,73 +999,73 @@
       <c r="G10" s="2">
         <v>0.42</v>
       </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
       <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>0.54</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>0.5333</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>0.42670000000000002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.45329999999999998</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>0.44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.4733</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.48</v>
       </c>
       <c r="M11" s="2">
         <v>0.48</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="O11" s="4">
         <v>0.38669999999999999</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>0.40670000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1074,32 +1087,32 @@
       <c r="G12" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
       <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>0.98</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>0.89329999999999998</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>0.85329999999999995</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>0.74</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="M15" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -1107,9 +1120,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1121,15 +1134,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1142,16 +1155,16 @@
       <c r="F21" s="1">
         <v>0.52</v>
       </c>
-      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -1165,144 +1178,192 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="M25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7">
-        <v>1</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
         <v>0.99329999999999996</v>
       </c>
-      <c r="M26" s="9">
+      <c r="N26" s="9">
         <v>0.98670000000000002</v>
       </c>
-      <c r="N26" s="7">
+      <c r="O26" s="7">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q26" s="2">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>0.99329999999999996</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>0.98</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>0.92</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>0.85329999999999995</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q27" s="5">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="S27">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>0.98</v>
       </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>0.89329999999999998</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>0.85329999999999995</v>
       </c>
-      <c r="M28" s="7">
+      <c r="N28" s="7">
         <v>0.74</v>
       </c>
-      <c r="N28" s="7">
+      <c r="O28" s="7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I29" t="s">
+      <c r="Q28" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0.4733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>0.87329999999999997</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>0.82</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <v>0.62670000000000003</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <v>0.5333</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q29" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0.36659999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1316,18 +1377,18 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>11</v>
       </c>
@@ -1340,207 +1401,276 @@
       <c r="F33" s="1">
         <v>0.77</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="s">
         <v>46</v>
       </c>
-      <c r="K33" t="s">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
         <v>47</v>
       </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>0.66</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>0.71</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="1">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="1">
         <v>0.71</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>0.78</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>0.81</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="1">
         <v>0.78</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>0.84</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L41" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="J43" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="11"/>
+      <c r="N44" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J45" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="K45" s="11"/>
+      <c r="L45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="11"/>
+      <c r="N45" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="11"/>
+      <c r="N46" t="s">
         <v>22</v>
       </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="P46" t="s">
         <v>61</v>
       </c>
-      <c r="H56" t="s">
+      <c r="Q46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="52" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0.25</v>
+      </c>
+      <c r="M53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J55" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="10"/>
-      <c r="E58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="K55" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" t="s">
-        <v>65</v>
+      <c r="K57" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="M43:M46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluation/results/results.xlsx
+++ b/evaluation/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\AirSim_Project\evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2887BB4-58D5-4DDB-8E7F-AF92CE1CA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246960F-51F0-4E1F-B54A-7CB99A177175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1592,7 +1592,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J52" t="s">
         <v>68</v>
       </c>
@@ -1600,71 +1600,101 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="10:16" x14ac:dyDescent="0.4">
       <c r="K53">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>0.25</v>
-      </c>
       <c r="M53">
+        <v>0.2</v>
+      </c>
+      <c r="N53">
+        <v>0.3</v>
+      </c>
+      <c r="O53">
+        <v>0.4</v>
+      </c>
+      <c r="P53">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J54" t="s">
         <v>37</v>
       </c>
       <c r="K54" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="M54" s="1">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.4">
+        <v>0.94</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="55" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J55" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="M55" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P55" s="1">
         <v>0.64</v>
       </c>
     </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J56" t="s">
         <v>38</v>
       </c>
       <c r="K56" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="M56" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="57" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
         <v>64</v>
       </c>
       <c r="K57" s="1">
         <v>0.99</v>
       </c>
-      <c r="L57" s="1">
-        <v>0.93</v>
-      </c>
       <c r="M57" s="1">
-        <v>0.88</v>
+        <v>0.97</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/results/results.xlsx
+++ b/evaluation/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\AirSim_Project\evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246960F-51F0-4E1F-B54A-7CB99A177175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B023EB-588B-488C-B0C9-569A1A026BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
   <si>
     <t>成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,26 @@
   </si>
   <si>
     <t>不同模型噪声（草地球场12m）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标移动速度（m/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN-RNN-RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风速（m/s）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -378,8 +398,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1516,13 +1540,13 @@
       <c r="J43" t="s">
         <v>37</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L43" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N43" t="s">
@@ -1539,11 +1563,11 @@
       <c r="J44" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="11"/>
+      <c r="K44" s="12"/>
       <c r="L44" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="11"/>
+      <c r="M44" s="12"/>
       <c r="N44" t="s">
         <v>18</v>
       </c>
@@ -1558,11 +1582,11 @@
       <c r="J45" t="s">
         <v>38</v>
       </c>
-      <c r="K45" s="11"/>
+      <c r="K45" s="12"/>
       <c r="L45" t="s">
         <v>55</v>
       </c>
-      <c r="M45" s="11"/>
+      <c r="M45" s="12"/>
       <c r="N45" t="s">
         <v>56</v>
       </c>
@@ -1577,11 +1601,11 @@
       <c r="J46" t="s">
         <v>64</v>
       </c>
-      <c r="K46" s="11"/>
+      <c r="K46" s="12"/>
       <c r="L46" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="11"/>
+      <c r="M46" s="12"/>
       <c r="N46" t="s">
         <v>22</v>
       </c>
@@ -1697,10 +1721,392 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C65" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.5</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1.5</v>
+      </c>
+      <c r="H66">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68">
+        <v>1.456</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="G68">
+        <v>1.446</v>
+      </c>
+      <c r="H68">
+        <v>1.429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70">
+        <v>1.534</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1.569</v>
+      </c>
+      <c r="G70">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="H70">
+        <v>1.631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="E73">
+        <v>1.389</v>
+      </c>
+      <c r="F73">
+        <v>1.413</v>
+      </c>
+      <c r="G73">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="H73">
+        <v>1.4990000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <v>1.53</v>
+      </c>
+      <c r="E75">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="F75">
+        <v>1.597</v>
+      </c>
+      <c r="G75">
+        <v>1.613</v>
+      </c>
+      <c r="H75">
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C83" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86">
+        <v>1.456</v>
+      </c>
+      <c r="E86">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="F86">
+        <v>1.218</v>
+      </c>
+      <c r="G86">
+        <v>1.1839999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88">
+        <v>1.534</v>
+      </c>
+      <c r="E88">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="F88">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="G88">
+        <v>1.345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="E91">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="F91">
+        <v>1.232</v>
+      </c>
+      <c r="G91">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93">
+        <v>1.522</v>
+      </c>
+      <c r="E93">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="F93">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="G93">
+        <v>1.3460000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="K43:K46"/>
     <mergeCell ref="M43:M46"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C65:G65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluation/results/results.xlsx
+++ b/evaluation/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PycharmProjects\AirSim_Project\evaluation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B023EB-588B-488C-B0C9-569A1A026BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8150A5F-7F0E-4ED0-8D6E-32F47452D4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>草地球场（训练场景）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路（训练场景）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpikingRNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,14 +127,6 @@
   </si>
   <si>
     <t>10m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90% (7% overtime)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89% (5% overtime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -710,24 +690,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -736,16 +716,16 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>3</v>
@@ -756,7 +736,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -768,7 +748,7 @@
         <v>0.92</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>0.99</v>
@@ -777,7 +757,7 @@
         <v>0.92</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
@@ -844,7 +824,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -856,7 +836,7 @@
         <v>0.97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2">
         <v>0.92</v>
@@ -865,7 +845,7 @@
         <v>0.98</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -888,7 +868,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -909,7 +889,7 @@
         <v>0.98</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -942,7 +922,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -950,7 +930,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -959,28 +939,28 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>0.61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
@@ -1047,28 +1027,28 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
         <v>0</v>
@@ -1091,7 +1071,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1112,7 +1092,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
         <v>0</v>
@@ -1136,98 +1116,38 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="N15" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.52</v>
-      </c>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.4">
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.4">
       <c r="J24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.4">
       <c r="K25" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>3</v>
@@ -1236,24 +1156,21 @@
         <v>4</v>
       </c>
       <c r="Q25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.4">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K26" s="6">
         <v>1</v>
@@ -1280,15 +1197,9 @@
         <v>0.9667</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.4">
       <c r="J27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27" s="5">
         <v>0.99329999999999996</v>
@@ -1315,15 +1226,12 @@
         <v>79.33</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.4">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28" s="6">
         <v>0.98</v>
@@ -1350,9 +1258,9 @@
         <v>0.4733</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.4">
       <c r="J29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K29" s="5">
         <v>0.87329999999999997</v>
@@ -1379,65 +1287,36 @@
         <v>0.36659999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.4">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.4">
       <c r="J32" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.77</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.4">
       <c r="J34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K34" s="1">
         <v>0.56000000000000005</v>
@@ -1449,15 +1328,9 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.4">
       <c r="J35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K35" s="1">
         <v>0.71</v>
@@ -1469,12 +1342,9 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.4">
       <c r="J36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K36" s="1">
         <v>0.78</v>
@@ -1486,142 +1356,115 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="L41" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" t="s">
-        <v>15</v>
-      </c>
-      <c r="M42" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" t="s">
-        <v>54</v>
-      </c>
-      <c r="M43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-      <c r="P43" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J44" t="s">
-        <v>14</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M44" s="12"/>
       <c r="N44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P44" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.4">
       <c r="J45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K45" s="12"/>
       <c r="L45" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M45" s="12"/>
       <c r="N45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P45" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.4">
       <c r="J46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M46" s="12"/>
       <c r="N46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q46" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="10:16" x14ac:dyDescent="0.4">
@@ -1643,7 +1486,7 @@
     </row>
     <row r="54" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K54" s="1">
         <v>0.98</v>
@@ -1663,7 +1506,7 @@
     </row>
     <row r="55" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K55" s="1">
         <v>0.97</v>
@@ -1683,7 +1526,7 @@
     </row>
     <row r="56" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K56" s="1">
         <v>0.96</v>
@@ -1703,7 +1546,7 @@
     </row>
     <row r="57" spans="10:16" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K57" s="1">
         <v>0.99</v>
@@ -1723,7 +1566,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C65" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
@@ -1749,10 +1592,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1775,27 +1618,27 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D68">
         <v>1.456</v>
       </c>
       <c r="E68" s="10">
-        <v>1.4550000000000001</v>
+        <v>1.425</v>
       </c>
       <c r="F68" s="10">
-        <v>1.4379999999999999</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="G68">
-        <v>1.446</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="H68">
-        <v>1.429</v>
+        <v>1.329</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1813,12 +1656,12 @@
         <v>0.93</v>
       </c>
       <c r="H69" s="1">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D70">
         <v>1.534</v>
@@ -1830,10 +1673,10 @@
         <v>1.569</v>
       </c>
       <c r="G70">
-        <v>1.6240000000000001</v>
+        <v>1.524</v>
       </c>
       <c r="H70">
-        <v>1.631</v>
+        <v>1.5309999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -1841,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -1853,7 +1696,7 @@
         <v>0.91</v>
       </c>
       <c r="F72" s="1">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="G72" s="1">
         <v>0.79</v>
@@ -1864,7 +1707,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D73">
         <v>1.4430000000000001</v>
@@ -1873,18 +1716,18 @@
         <v>1.389</v>
       </c>
       <c r="F73">
-        <v>1.413</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="G73">
-        <v>1.4279999999999999</v>
+        <v>1.3280000000000001</v>
       </c>
       <c r="H73">
-        <v>1.4990000000000001</v>
+        <v>1.319</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1893,41 +1736,41 @@
         <v>0.99</v>
       </c>
       <c r="E74" s="1">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F74" s="1">
         <v>0.92</v>
       </c>
       <c r="G74" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="H74" s="1">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C75" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D75">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="E75">
         <v>1.53</v>
       </c>
-      <c r="E75">
-        <v>1.5589999999999999</v>
-      </c>
       <c r="F75">
-        <v>1.597</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="G75">
-        <v>1.613</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="H75">
-        <v>1.6080000000000001</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C83" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -1949,10 +1792,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1961,18 +1804,18 @@
         <v>0.99</v>
       </c>
       <c r="E85" s="1">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F85" s="1">
         <v>0.88</v>
       </c>
       <c r="G85" s="1">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D86">
         <v>1.456</v>
@@ -1989,7 +1832,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -2009,7 +1852,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D88">
         <v>1.534</v>
@@ -2029,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -2041,7 +1884,7 @@
         <v>0.89</v>
       </c>
       <c r="F90" s="1">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G90" s="1">
         <v>0.6</v>
@@ -2049,7 +1892,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D91">
         <v>1.4430000000000001</v>
@@ -2066,7 +1909,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
@@ -2086,7 +1929,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D93">
         <v>1.522</v>
@@ -2095,7 +1938,7 @@
         <v>1.4319999999999999</v>
       </c>
       <c r="F93">
-        <v>1.2969999999999999</v>
+        <v>1.337</v>
       </c>
       <c r="G93">
         <v>1.3460000000000001</v>
